--- a/data/Forecast Sample Data.xlsx
+++ b/data/Forecast Sample Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ML\Distro_Energy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ML\solar-energy-prediction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8D74347-0F86-4AA7-8263-F4B1BD82A595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0DA3E5-42F4-4CAE-9885-482ABA3E0343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23580" yWindow="-12060" windowWidth="21600" windowHeight="11340" xr2:uid="{3EFE2C34-1E39-6F44-A6F6-62D9E3E57201}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{3EFE2C34-1E39-6F44-A6F6-62D9E3E57201}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -968,7 +968,7 @@
   <dimension ref="A1:GK6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
